--- a/docs/timesheet_Sven_Noteboom.xlsx
+++ b/docs/timesheet_Sven_Noteboom.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Code\nmdad1.local\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="270" yWindow="615" windowWidth="14700" windowHeight="5325"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
     <t>wat?</t>
   </si>
@@ -59,12 +64,96 @@
   </si>
   <si>
     <t>3uur</t>
+  </si>
+  <si>
+    <t>wie?</t>
+  </si>
+  <si>
+    <t>Sven</t>
+  </si>
+  <si>
+    <t>opzoeken datasets</t>
+  </si>
+  <si>
+    <t>Giuliano</t>
+  </si>
+  <si>
+    <t>opzoeken info</t>
+  </si>
+  <si>
+    <t>wireframes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style tile </t>
+  </si>
+  <si>
+    <t>wireframes desktop</t>
+  </si>
+  <si>
+    <t>style tile / poster</t>
+  </si>
+  <si>
+    <t>wireframes totaal</t>
+  </si>
+  <si>
+    <t>visual designs</t>
+  </si>
+  <si>
+    <t>sitemap</t>
+  </si>
+  <si>
+    <t>wireframes aanpassing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,5uur </t>
+  </si>
+  <si>
+    <t>visual designs aanpassing</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>4uur</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>5uur</t>
+  </si>
+  <si>
+    <t>backend - loginsysteem</t>
+  </si>
+  <si>
+    <t>frontend - pages</t>
+  </si>
+  <si>
+    <t>4,30uur</t>
+  </si>
+  <si>
+    <t>frontend - responsiveness</t>
+  </si>
+  <si>
+    <t>6uur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6uur </t>
+  </si>
+  <si>
+    <t>frontend -debug</t>
+  </si>
+  <si>
+    <t>frontend - laatste aanpassingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nakijken </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,7 +162,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,7 +171,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor rgb="FF9BC2E6"/>
       </patternFill>
     </fill>
@@ -99,17 +194,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -119,6 +218,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -167,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,7 +304,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,184 +513,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="5" width="9" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2">
+      <c r="G2" s="3"/>
+      <c r="H2" s="1">
         <v>42646</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2">
+      <c r="G3" s="3"/>
+      <c r="H3" s="1">
         <v>42646</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="2">
+      <c r="G4" s="3"/>
+      <c r="H4" s="1">
         <v>42653</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2">
+      <c r="G5" s="3"/>
+      <c r="H5" s="1">
         <v>42653</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2">
+      <c r="G6" s="3"/>
+      <c r="H6" s="1">
         <v>42660</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2">
+      <c r="G7" s="3"/>
+      <c r="H7" s="1">
         <v>42660</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2">
+      <c r="G8" s="3"/>
+      <c r="H8" s="1">
         <v>42665</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2">
+      <c r="G9" s="3"/>
+      <c r="H9" s="1">
         <v>42667</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="1">
+        <v>42681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1">
+        <v>42681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1">
+        <v>42688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="1">
+        <v>42688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1">
+        <v>42695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1">
+        <v>42695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="1">
+        <v>42713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="1">
+        <v>42716</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="1">
+        <v>42717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1">
+        <v>42717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="1">
+        <v>42718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="1">
+        <v>42723</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="1">
+        <v>42725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="1">
+        <v>42725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1">
+        <v>42726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="1">
+        <v>42726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="1">
+        <v>42727</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
+  <mergeCells count="64">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
